--- a/public_holiday/祝日入力シート（事務局用）.xlsx
+++ b/public_holiday/祝日入力シート（事務局用）.xlsx
@@ -1,38 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ARONAS\Datacenter\IT\SystemAssistant\月例・随時作業関連\祝日マスタ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725D5E8-9F2C-445F-9EA9-31233A2EA654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="3900" windowWidth="38400" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="祝日" sheetId="1" r:id="rId1"/>
-    <sheet name="休息時間計算" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="祝日" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="休息時間計算" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>元日</t>
   </si>
@@ -173,436 +153,113 @@
   </si>
   <si>
     <t>実働時間</t>
-  </si>
-  <si>
-    <t>2020/12/29</t>
-  </si>
-  <si>
-    <t>22022/1/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1">
-        <v>42736</v>
+        <v>42736.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -614,9 +271,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1">
-        <v>42737</v>
+        <v>42737.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -625,9 +282,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1">
-        <v>42744</v>
+        <v>42744.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -636,9 +293,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="1">
-        <v>42777</v>
+        <v>42777.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -647,9 +304,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="1">
-        <v>42814</v>
+        <v>42814.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -658,9 +315,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="1">
-        <v>42854</v>
+        <v>42854.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -669,9 +326,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="1">
-        <v>42858</v>
+        <v>42858.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -680,9 +337,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="1">
-        <v>42859</v>
+        <v>42859.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -691,912 +348,934 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="1">
-        <v>42860</v>
+        <v>42860.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1">
-        <v>42933</v>
+        <v>42933.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" hidden="1">
       <c r="A11" s="1">
-        <v>42958</v>
+        <v>42958.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" hidden="1">
       <c r="A12" s="1">
-        <v>42996</v>
+        <v>42996.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" hidden="1">
       <c r="A13" s="1">
-        <v>43001</v>
+        <v>43001.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" hidden="1">
       <c r="A14" s="1">
-        <v>43017</v>
+        <v>43017.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" hidden="1">
       <c r="A15" s="1">
-        <v>43042</v>
+        <v>43042.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" hidden="1">
       <c r="A16" s="1">
-        <v>43062</v>
+        <v>43062.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" hidden="1">
       <c r="A17" s="1">
-        <v>43092</v>
+        <v>43092.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" hidden="1">
       <c r="A18" s="1">
-        <v>43098</v>
+        <v>43098.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" hidden="1">
       <c r="A19" s="1">
-        <v>43099</v>
+        <v>43099.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" hidden="1">
       <c r="A20" s="5">
-        <v>43100</v>
+        <v>43100.0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" hidden="1">
       <c r="A21" s="1">
-        <v>43101</v>
+        <v>43101.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" hidden="1">
       <c r="A22" s="1">
-        <v>43102</v>
+        <v>43102.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" hidden="1">
       <c r="A23" s="1">
-        <v>43103</v>
+        <v>43103.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" hidden="1">
       <c r="A24" s="1">
-        <v>43108</v>
+        <v>43108.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" hidden="1">
       <c r="A25" s="1">
-        <v>43142</v>
+        <v>43142.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" hidden="1">
       <c r="A26" s="1">
-        <v>43143</v>
+        <v>43143.0</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" hidden="1">
       <c r="A27" s="1">
-        <v>43180</v>
+        <v>43180.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" hidden="1">
       <c r="A28" s="1">
-        <v>43219</v>
+        <v>43219.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" hidden="1">
       <c r="A29" s="1">
-        <v>43220</v>
+        <v>43220.0</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" hidden="1">
       <c r="A30" s="1">
-        <v>43223</v>
+        <v>43223.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" hidden="1">
       <c r="A31" s="1">
-        <v>43224</v>
+        <v>43224.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" hidden="1">
       <c r="A32" s="1">
-        <v>43225</v>
+        <v>43225.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" hidden="1">
       <c r="A33" s="1">
-        <v>43297</v>
+        <v>43297.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" hidden="1">
       <c r="A34" s="1">
-        <v>43323</v>
+        <v>43323.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" hidden="1">
       <c r="A35" s="1">
-        <v>43360</v>
+        <v>43360.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" hidden="1">
       <c r="A36" s="1">
-        <v>43366</v>
+        <v>43366.0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" hidden="1">
       <c r="A37" s="1">
-        <v>43367</v>
+        <v>43367.0</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" hidden="1">
       <c r="A38" s="1">
-        <v>43381</v>
+        <v>43381.0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" hidden="1">
       <c r="A39" s="1">
-        <v>43407</v>
+        <v>43407.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" hidden="1">
       <c r="A40" s="1">
-        <v>43427</v>
+        <v>43427.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" hidden="1">
       <c r="A41" s="1">
-        <v>43457</v>
+        <v>43457.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" hidden="1">
       <c r="A42" s="1">
-        <v>43458</v>
+        <v>43458.0</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" hidden="1">
       <c r="A43" s="7">
-        <v>43463</v>
+        <v>43463.0</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" hidden="1">
       <c r="A44" s="7">
-        <v>43464</v>
+        <v>43464.0</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" hidden="1">
       <c r="A45" s="7">
-        <v>43465</v>
+        <v>43465.0</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" hidden="1">
       <c r="A46" s="1">
-        <v>43466</v>
+        <v>43466.0</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" hidden="1">
       <c r="A47" s="7">
-        <v>43467</v>
+        <v>43467.0</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" hidden="1">
       <c r="A48" s="9">
-        <v>43468</v>
+        <v>43468.0</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="10">
-        <v>43479</v>
+        <v>43479.0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" hidden="1">
       <c r="A50" s="10">
-        <v>43507</v>
+        <v>43507.0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" hidden="1">
       <c r="A51" s="10">
-        <v>43545</v>
+        <v>43545.0</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" hidden="1">
       <c r="A52" s="10">
-        <v>43584</v>
+        <v>43584.0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" hidden="1">
       <c r="A53" s="10">
-        <v>43585</v>
+        <v>43585.0</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" hidden="1">
       <c r="A54" s="10">
-        <v>43586</v>
+        <v>43586.0</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" hidden="1">
       <c r="A55" s="10">
-        <v>43587</v>
+        <v>43587.0</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" hidden="1">
       <c r="A56" s="10">
-        <v>43588</v>
+        <v>43588.0</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" hidden="1">
       <c r="A57" s="10">
-        <v>43589</v>
+        <v>43589.0</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" hidden="1">
       <c r="A58" s="10">
-        <v>43590</v>
+        <v>43590.0</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" hidden="1">
       <c r="A59" s="10">
-        <v>43591</v>
+        <v>43591.0</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" hidden="1">
       <c r="A60" s="10">
-        <v>43661</v>
+        <v>43661.0</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" hidden="1">
       <c r="A61" s="10">
-        <v>43688</v>
+        <v>43688.0</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" hidden="1">
       <c r="A62" s="10">
-        <v>43689</v>
+        <v>43689.0</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" hidden="1">
       <c r="A63" s="10">
-        <v>43724</v>
+        <v>43724.0</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" hidden="1">
       <c r="A64" s="10">
-        <v>43731</v>
+        <v>43731.0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" hidden="1">
       <c r="A65" s="10">
-        <v>43752</v>
+        <v>43752.0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" hidden="1">
       <c r="A66" s="10">
-        <v>43760</v>
+        <v>43760.0</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" hidden="1">
       <c r="A67" s="10">
-        <v>43772</v>
+        <v>43772.0</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" hidden="1">
       <c r="A68" s="10">
-        <v>43773</v>
+        <v>43773.0</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" hidden="1">
       <c r="A69" s="10">
-        <v>43792</v>
+        <v>43792.0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" hidden="1">
       <c r="A70" s="7">
-        <v>43828</v>
+        <v>43828.0</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" hidden="1">
       <c r="A71" s="7">
-        <v>43829</v>
+        <v>43829.0</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" hidden="1">
       <c r="A72" s="7">
-        <v>43830</v>
+        <v>43830.0</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="7">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" hidden="1">
       <c r="A74" s="7">
-        <v>43832</v>
+        <v>43832.0</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" hidden="1">
       <c r="A75" s="9">
-        <v>43833</v>
+        <v>43833.0</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" hidden="1">
       <c r="A76" s="11">
-        <v>43843</v>
+        <v>43843.0</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" hidden="1">
       <c r="A77" s="10">
-        <v>43872</v>
+        <v>43872.0</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" hidden="1">
       <c r="A78" s="10">
-        <v>43884</v>
+        <v>43884.0</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" hidden="1">
       <c r="A79" s="11">
-        <v>43885</v>
+        <v>43885.0</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" hidden="1">
       <c r="A80" s="10">
-        <v>43910</v>
+        <v>43910.0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" s="10">
-        <v>43950</v>
+        <v>43950.0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" s="10">
-        <v>43954</v>
+        <v>43954.0</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" s="10">
-        <v>43955</v>
+        <v>43955.0</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" s="10">
-        <v>43956</v>
+        <v>43956.0</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" s="10">
-        <v>43957</v>
+        <v>43957.0</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" s="10">
-        <v>44035</v>
+        <v>44035.0</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" s="10">
-        <v>44036</v>
+        <v>44036.0</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" s="10">
-        <v>44053</v>
+        <v>44053.0</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" s="10">
-        <v>44095</v>
+        <v>44095.0</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" s="10">
-        <v>44096</v>
+        <v>44096.0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" s="10">
-        <v>44138</v>
+        <v>44138.0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" s="10">
-        <v>44158</v>
+        <v>44158.0</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
-        <v>44195</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
-        <v>44196</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
-        <v>44197</v>
-      </c>
-      <c r="B96" s="15" t="s">
+    <row r="93">
+      <c r="A93" s="10">
+        <v>44194.0</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10">
+        <v>44195.0</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="10">
+        <v>44196.0</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10">
+        <v>44197.0</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
-        <v>44198</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
-        <v>44199</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
-        <v>44207</v>
-      </c>
-      <c r="B99" s="15" t="s">
+    <row r="97">
+      <c r="A97" s="10">
+        <v>44198.0</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10">
+        <v>44199.0</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="10">
+        <v>44207.0</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
-        <v>44238</v>
-      </c>
-      <c r="B100" s="15" t="s">
+    <row r="100">
+      <c r="A100" s="10">
+        <v>44238.0</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
-        <v>44250</v>
-      </c>
-      <c r="B101" s="15" t="s">
+    <row r="101">
+      <c r="A101" s="10">
+        <v>44250.0</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
-        <v>44275</v>
-      </c>
-      <c r="B102" s="15" t="s">
+    <row r="102">
+      <c r="A102" s="10">
+        <v>44275.0</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
-        <v>44315</v>
-      </c>
-      <c r="B103" s="15" t="s">
+    <row r="103">
+      <c r="A103" s="10">
+        <v>44315.0</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
-        <v>44319</v>
-      </c>
-      <c r="B104" s="15" t="s">
+    <row r="104">
+      <c r="A104" s="10">
+        <v>44319.0</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="14">
-        <v>44320</v>
-      </c>
-      <c r="B105" s="15" t="s">
+    <row r="105">
+      <c r="A105" s="10">
+        <v>44320.0</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="14">
-        <v>44321</v>
-      </c>
-      <c r="B106" s="15" t="s">
+    <row r="106">
+      <c r="A106" s="10">
+        <v>44321.0</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
-        <v>44396</v>
-      </c>
-      <c r="B107" s="15" t="s">
+    <row r="107">
+      <c r="A107" s="10">
+        <v>44399.0</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
-        <v>44419</v>
-      </c>
-      <c r="B108" s="15" t="s">
+    <row r="108">
+      <c r="A108" s="10">
+        <v>44400.0</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="10">
+        <v>44417.0</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
-        <v>44459</v>
-      </c>
-      <c r="B109" s="15" t="s">
+    <row r="110">
+      <c r="A110" s="10">
+        <v>44459.0</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
-        <v>44462</v>
-      </c>
-      <c r="B110" s="15" t="s">
+    <row r="111">
+      <c r="A111" s="10">
+        <v>44462.0</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
-        <v>44480</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
-        <v>44503</v>
-      </c>
-      <c r="B112" s="15" t="s">
+    <row r="112">
+      <c r="A112" s="10">
+        <v>44503.0</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
-        <v>44523</v>
-      </c>
-      <c r="B113" s="15" t="s">
+    <row r="113">
+      <c r="A113" s="10">
+        <v>44523.0</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
-        <v>44559</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
-        <v>44560</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="14">
-        <v>44561</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="14">
-        <v>44562</v>
-      </c>
-      <c r="B117" s="15" t="s">
+    <row r="114">
+      <c r="A114" s="10">
+        <v>44559.0</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="10">
+        <v>44560.0</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10">
+        <v>44561.0</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="10">
+        <v>44562.0</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14">
-        <v>44564</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>31</v>
+    <row r="118">
+      <c r="A118" s="10">
+        <v>44563.0</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="10">
+        <v>44564.0</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10">
+        <v>44571.0</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="10">
+        <v>44603.0</v>
+      </c>
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="10">
+        <v>44615.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="10">
+        <v>44641.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1607,387 +1286,386 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="12">
         <v>0.16666666666666666</v>
       </c>
       <c r="B3" s="12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" s="12">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="12">
         <v>0.17708333333333334</v>
       </c>
       <c r="B4" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C4" s="12">
         <v>0.15625</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="12">
         <v>0.1875</v>
       </c>
       <c r="B5" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C5" s="12">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="12">
         <v>0.19791666666666666</v>
       </c>
       <c r="B6" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C6" s="12">
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="12">
         <v>0.20833333333333334</v>
       </c>
       <c r="B7" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C7" s="12">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="12">
         <v>0.21875</v>
       </c>
       <c r="B8" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C8" s="12">
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="12">
         <v>0.22916666666666666</v>
       </c>
       <c r="B9" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C9" s="12">
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="12">
         <v>0.23958333333333334</v>
       </c>
       <c r="B10" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C10" s="12">
         <v>0.21875</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="12">
         <v>0.25</v>
       </c>
       <c r="B11" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C11" s="12">
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="12">
-        <v>0.26041666666666669</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="B12" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C12" s="12">
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="12">
-        <v>0.27083333333333331</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="B13" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C13" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="12">
         <v>0.28125</v>
       </c>
       <c r="B14" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="C14" s="12">
-        <v>0.26041666666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.2604166666666667</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="12">
-        <v>0.29166666666666669</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="B15" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C15" s="12">
-        <v>0.26041666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.2604166666666667</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="12">
-        <v>0.30208333333333331</v>
+        <v>0.3020833333333333</v>
       </c>
       <c r="B16" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C16" s="12">
-        <v>0.27083333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.2708333333333333</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="12">
         <v>0.3125</v>
       </c>
       <c r="B17" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C17" s="12">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="12">
-        <v>0.32291666666666669</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="B18" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C18" s="12">
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B19" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C19" s="12">
-        <v>0.30208333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3020833333333333</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="12">
         <v>0.34375</v>
       </c>
       <c r="B20" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C20" s="12">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="12">
-        <v>0.35416666666666669</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="B21" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C21" s="12">
-        <v>0.32291666666666669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3229166666666667</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="12">
-        <v>0.36458333333333331</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="B22" s="12">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="C22" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="12">
         <v>0.375</v>
       </c>
       <c r="B23" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C23" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="12">
-        <v>0.38541666666666669</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="B24" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C24" s="12">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B25" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C25" s="12">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3541666666666667</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="12">
         <v>0.40625</v>
       </c>
       <c r="B26" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C26" s="12">
-        <v>0.36458333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3645833333333333</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B27" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C27" s="12">
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="12">
-        <v>0.42708333333333331</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="B28" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C28" s="12">
-        <v>0.38541666666666669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3854166666666667</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="12">
         <v>0.4375</v>
       </c>
       <c r="B29" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C29" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="12">
-        <v>0.44791666666666669</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="B30" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C30" s="12">
         <v>0.40625</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="B31" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C31" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="12">
         <v>0.46875</v>
       </c>
       <c r="B32" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C32" s="12">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.4270833333333333</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="12">
-        <v>0.47916666666666669</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="B33" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C33" s="12">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="12">
-        <v>0.48958333333333331</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="B34" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C34" s="12">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.4479166666666667</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="12">
         <v>0.5</v>
       </c>
       <c r="B35" s="12">
-        <v>4.1666666666666664E-2</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="C35" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public_holiday/祝日入力シート（事務局用）.xlsx
+++ b/public_holiday/祝日入力シート（事務局用）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>元日</t>
   </si>
@@ -255,7 +255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
@@ -1248,16 +1248,277 @@
       <c r="A121" s="10">
         <v>44603.0</v>
       </c>
-      <c r="B121" s="8"/>
+      <c r="B121" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="10">
         <v>44615.0</v>
       </c>
+      <c r="B122" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="10">
         <v>44641.0</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10">
+        <v>44680.0</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10">
+        <v>44684.0</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10">
+        <v>44685.0</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="10">
+        <v>44686.0</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10">
+        <v>44760.0</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="10">
+        <v>44784.0</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10">
+        <v>44823.0</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="10">
+        <v>44827.0</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="10">
+        <v>44844.0</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="10">
+        <v>44868.0</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10">
+        <v>44888.0</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="10">
+        <v>44924.0</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10">
+        <v>44925.0</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="10">
+        <v>44926.0</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10">
+        <v>44927.0</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="10">
+        <v>44928.0</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="10">
+        <v>44929.0</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="10">
+        <v>44935.0</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="10">
+        <v>44968.0</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="10">
+        <v>44980.0</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10">
+        <v>45006.0</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="10">
+        <v>45045.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="10">
+        <v>45049.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="10">
+        <v>45050.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="10">
+        <v>45051.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="10">
+        <v>45124.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="10">
+        <v>45149.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="10">
+        <v>45187.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10">
+        <v>45192.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="10">
+        <v>45208.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="10">
+        <v>45233.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="10">
+        <v>45253.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="10">
+        <v>45289.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="10">
+        <v>45290.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="10">
+        <v>45291.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="10">
+        <v>45292.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="10">
+        <v>45293.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="10">
+        <v>45294.0</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
@@ -1313,10 +1574,10 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="B4" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="12">
-        <v>0.15625</v>
+        <v>0.17708333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1324,10 +1585,10 @@
         <v>0.1875</v>
       </c>
       <c r="B5" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="12">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="6">
@@ -1335,10 +1596,10 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="B6" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="12">
-        <v>0.17708333333333334</v>
+        <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1346,10 +1607,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B7" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="12">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="8">
@@ -1357,10 +1618,10 @@
         <v>0.21875</v>
       </c>
       <c r="B8" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="12">
-        <v>0.19791666666666666</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="9">
@@ -1368,10 +1629,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="B9" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="12">
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -1379,10 +1640,10 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="B10" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="12">
-        <v>0.21875</v>
+        <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -1390,10 +1651,10 @@
         <v>0.25</v>
       </c>
       <c r="B11" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="12">
-        <v>0.22916666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -1401,10 +1662,10 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="B12" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.03125</v>
       </c>
       <c r="C12" s="12">
-        <v>0.23958333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -1412,10 +1673,10 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="B13" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.03125</v>
       </c>
       <c r="C13" s="12">
-        <v>0.25</v>
+        <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1423,10 +1684,10 @@
         <v>0.28125</v>
       </c>
       <c r="B14" s="12">
-        <v>0.020833333333333332</v>
+        <v>0.03125</v>
       </c>
       <c r="C14" s="12">
-        <v>0.2604166666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">

--- a/public_holiday/祝日入力シート（事務局用）.xlsx
+++ b/public_holiday/祝日入力シート（事務局用）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
   <si>
     <t>元日</t>
   </si>
@@ -1440,85 +1440,344 @@
       <c r="A145" s="10">
         <v>45045.0</v>
       </c>
+      <c r="B145" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="10">
         <v>45049.0</v>
       </c>
+      <c r="B146" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="10">
         <v>45050.0</v>
       </c>
+      <c r="B147" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="10">
         <v>45051.0</v>
       </c>
+      <c r="B148" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="10">
         <v>45124.0</v>
       </c>
+      <c r="B149" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="10">
         <v>45149.0</v>
       </c>
+      <c r="B150" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="10">
         <v>45187.0</v>
       </c>
+      <c r="B151" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="10">
         <v>45192.0</v>
       </c>
+      <c r="B152" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="10">
         <v>45208.0</v>
       </c>
+      <c r="B153" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="10">
         <v>45233.0</v>
       </c>
+      <c r="B154" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="10">
         <v>45253.0</v>
       </c>
+      <c r="B155" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="10">
         <v>45289.0</v>
       </c>
+      <c r="B156" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="10">
         <v>45290.0</v>
       </c>
+      <c r="B157" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="10">
         <v>45291.0</v>
       </c>
+      <c r="B158" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="10">
         <v>45292.0</v>
       </c>
+      <c r="B159" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="10">
         <v>45293.0</v>
       </c>
+      <c r="B160" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="10">
         <v>45294.0</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="10">
+        <v>45299.0</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="10">
+        <v>45333.0</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="10">
+        <v>45334.0</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="10">
+        <v>45345.0</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="10">
+        <v>45371.0</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="10">
+        <v>45411.0</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="10">
+        <v>45415.0</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="10">
+        <v>45416.0</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="10">
+        <v>45417.0</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="10">
+        <v>45418.0</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="10">
+        <v>45488.0</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="10">
+        <v>45515.0</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10">
+        <v>45516.0</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="10">
+        <v>45551.0</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="10">
+        <v>45557.0</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="10">
+        <v>45558.0</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10">
+        <v>45579.0</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="10">
+        <v>45599.0</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="10">
+        <v>45600.0</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="10">
+        <v>45619.0</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10">
+        <v>45655.0</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="10">
+        <v>45656.0</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="10">
+        <v>45657.0</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="10">
+        <v>45658.0</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="10">
+        <v>45659.0</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="10">
+        <v>45660.0</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/public_holiday/祝日入力シート（事務局用）.xlsx
+++ b/public_holiday/祝日入力シート（事務局用）.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="47">
   <si>
     <t>元日</t>
   </si>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,13 +173,24 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -191,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -228,6 +239,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1780,6 +1794,166 @@
         <v>31</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="10">
+        <v>45670.0</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="10">
+        <v>45699.0</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10">
+        <v>45712.0</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="10">
+        <v>45736.0</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10">
+        <v>45776.0</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="10">
+        <v>45782.0</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="10">
+        <v>45783.0</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="10">
+        <v>45859.0</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="10">
+        <v>45880.0</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="10">
+        <v>45915.0</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="10">
+        <v>45923.0</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="10">
+        <v>45943.0</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="10">
+        <v>45964.0</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="10">
+        <v>45985.0</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="10">
+        <v>46020.0</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="10">
+        <v>46021.0</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="10">
+        <v>46022.0</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="10">
+        <v>45658.0</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="10">
+        <v>45659.0</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="10">
+        <v>45660.0</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1807,376 +1981,376 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>0.0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>0.0</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>0.0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>0.0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>0.17708333333333334</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>0.1875</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>0.0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>0.1875</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>0.0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>0.0</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>0.21875</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>0.0</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0.21875</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>0.0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>0.23958333333333334</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>0.0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>0.25</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>0.0</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>0.25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>0.2604166666666667</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>0.2708333333333333</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>0.28125</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>0.25</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>0.2916666666666667</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>0.2604166666666667</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>0.3020833333333333</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>0.3125</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>0.28125</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>0.3229166666666667</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>0.3020833333333333</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>0.34375</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <v>0.3125</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>0.3541666666666667</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="13">
         <v>0.3229166666666667</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>0.3645833333333333</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <v>0.03125</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="13">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>0.375</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="13">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>0.3854166666666667</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <v>0.34375</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>0.3958333333333333</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>0.40625</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>0.4166666666666667</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <v>0.375</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>0.4270833333333333</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>0.4375</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>0.4479166666666667</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>0.46875</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>0.4791666666666667</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>0.4895833333333333</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>0.5</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="13">
         <v>0.041666666666666664</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
